--- a/data/Input_drug_scores_Mulit_lan.xlsx
+++ b/data/Input_drug_scores_Mulit_lan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="235">
   <si>
     <t xml:space="preserve">EN_VARIABLE</t>
   </si>
@@ -480,30 +480,57 @@
     <t xml:space="preserve">EN_DRUG</t>
   </si>
   <si>
+    <t xml:space="preserve">EN_LABELS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ES_DRUG</t>
   </si>
   <si>
+    <t xml:space="preserve">ES_LABELS</t>
+  </si>
+  <si>
     <t xml:space="preserve">DE_DRUG</t>
   </si>
   <si>
+    <t xml:space="preserve">DE_LABELS</t>
+  </si>
+  <si>
     <t xml:space="preserve">weight</t>
   </si>
   <si>
+    <t xml:space="preserve">Pick some Drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elije algunas Drogas</t>
+  </si>
+  <si>
     <t xml:space="preserve">DROGEN MORT </t>
   </si>
   <si>
     <t xml:space="preserve">Alcohol</t>
   </si>
   <si>
+    <t xml:space="preserve">Select at least two substances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecciona por lo menos dos sustancias</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alkohol </t>
   </si>
   <si>
     <t xml:space="preserve">Heroin</t>
   </si>
   <si>
+    <t xml:space="preserve">Choose harm categories</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heroína</t>
   </si>
   <si>
+    <t xml:space="preserve">Selecciona categorí­as de Riesgos</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Heroin </t>
   </si>
   <si>
@@ -511,6 +538,12 @@
   </si>
   <si>
     <t xml:space="preserve">Crack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A project by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un proyecto desarrollado por</t>
   </si>
   <si>
     <t xml:space="preserve"> Crack </t>
@@ -835,11 +868,11 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1350,416 +1383,475 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>168</v>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>172</v>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>176</v>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>180</v>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>183</v>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>186</v>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>190</v>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>194</v>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>198</v>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>202</v>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>206</v>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1778,13 +1870,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.71"/>
@@ -1874,7 +1966,6 @@
       <c r="U1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -1940,7 +2031,6 @@
       <c r="U2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -2006,7 +2096,6 @@
       <c r="U3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -2072,7 +2161,6 @@
       <c r="U4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -2138,7 +2226,6 @@
       <c r="U5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -2204,7 +2291,6 @@
       <c r="U6" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="V6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -2270,7 +2356,6 @@
       <c r="U7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="V7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -2336,7 +2421,6 @@
       <c r="U8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -2402,7 +2486,6 @@
       <c r="U9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -2468,7 +2551,6 @@
       <c r="U10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -2534,7 +2616,6 @@
       <c r="U11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -2600,7 +2681,6 @@
       <c r="U12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -2666,7 +2746,6 @@
       <c r="U13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -2732,7 +2811,6 @@
       <c r="U14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -2798,7 +2876,6 @@
       <c r="U15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -2864,7 +2941,6 @@
       <c r="U16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -2930,31 +3006,6 @@
       <c r="U17" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="V17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Input_drug_scores_Mulit_lan.xlsx
+++ b/data/Input_drug_scores_Mulit_lan.xlsx
@@ -872,7 +872,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1389,7 +1389,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1876,7 +1876,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.71"/>
